--- a/biology/Mycologie/Hippolyte-Marie_Crouan/Hippolyte-Marie_Crouan.xlsx
+++ b/biology/Mycologie/Hippolyte-Marie_Crouan/Hippolyte-Marie_Crouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippolyte-Marie Crouan, né à Brest le 22 novembre 1802 et mort le 4 juin 1871 dans la même ville[1], est un pharmacien et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippolyte-Marie Crouan, né à Brest le 22 novembre 1802 et mort le 4 juin 1871 dans la même ville, est un pharmacien et botaniste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippolyte Crouan est le fils d'Étienne-Florent Crouan, fournisseur de la marine, qui était connu à Brest au moment de la révolution sous le nom de Crouan-Chandelle, le frère cadet de Pierre-Louis Crouan et le cousin germain de l'armateur nantais René-Denis Crouan (1806-1891)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippolyte Crouan est le fils d'Étienne-Florent Crouan, fournisseur de la marine, qui était connu à Brest au moment de la révolution sous le nom de Crouan-Chandelle, le frère cadet de Pierre-Louis Crouan et le cousin germain de l'armateur nantais René-Denis Crouan (1806-1891),.
 Diplômé de l'École supérieure de pharmacie, il devient pharmacien à Paris en 1829, après s'être perfectionné dans l'officine de son frère. Il réalise des travaux de botanique, mycologie et phycologie.
 Il est membre de la Société botanique de France et de la Société nationale des sciences naturelles et mathématiques de Cherbourg.
 Il meurt le 4 juin 1871, quelques mois avant son frère.
